--- a/docs/assets/data/xlexamples/nfl-arrest-usatoday.xlsx
+++ b/docs/assets/data/xlexamples/nfl-arrest-usatoday.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shcohen1/Dropbox (ASU)/data-reporting-class/practice data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shcohen1/Documents/GitHub/cronkite-docs/docs/assets/data/xlexamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2764C6-421B-C349-A273-F98A1774B0A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE32188E-70AB-224E-9C21-FA6EA84BC23B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="3080" windowWidth="27640" windowHeight="16940" xr2:uid="{1AFB17AE-B308-7F41-AB3C-6B0C5EEA4A16}"/>
   </bookViews>
   <sheets>
     <sheet name="arrests" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="2459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6642" uniqueCount="2474">
   <si>
     <t>Date</t>
   </si>
@@ -7403,13 +7404,58 @@
   </si>
   <si>
     <t>These are arrests, charges and citations of NFL players for crimes more serious than common traffic violations. Almost all of the players belonged to an NFL roster at the time of the incident. In rare cases, a free agent is included only if that player later signs with an NFL team. The data comes from media reports and public records. It cannot be considered fully complete because records of some player arrests might not have been found for various reasons, including lack of media coverage or accessible public records. Many resolutions to these cases also are pending or could not be immediately found. The database was conceived and created by sports writer Brent Schrotenboer, who can be reached at bschrotenb@usatoday.com. Please contact him with any updates or inquiries.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Created using sequential numbers after download</t>
+  </si>
+  <si>
+    <t>date/time</t>
+  </si>
+  <si>
+    <t>mm/dd/yyyy</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>standarized abbreviation for team</t>
+  </si>
+  <si>
+    <t>player name in first name last name format</t>
+  </si>
+  <si>
+    <t>standardized position</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>comma-separated list of the USA Today categories</t>
+  </si>
+  <si>
+    <t>long description of the case</t>
+  </si>
+  <si>
+    <t>long description of the outcome,</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>How often is it updated? Are old cases still monitored?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7775,7 +7821,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -7787,7 +7833,7 @@
     <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7813,7 +7859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43686</v>
       </c>
@@ -7839,7 +7885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34">
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43685</v>
       </c>
@@ -7865,7 +7911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51">
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43663</v>
       </c>
@@ -7891,7 +7937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34">
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43657</v>
       </c>
@@ -7917,7 +7963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34">
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43622</v>
       </c>
@@ -7943,7 +7989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34">
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43610</v>
       </c>
@@ -7969,7 +8015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34">
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43581</v>
       </c>
@@ -7995,7 +8041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51">
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43568</v>
       </c>
@@ -8021,7 +8067,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51">
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43566</v>
       </c>
@@ -8047,7 +8093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="51">
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43559</v>
       </c>
@@ -8073,7 +8119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34">
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43551</v>
       </c>
@@ -8099,7 +8145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="51">
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43525</v>
       </c>
@@ -8125,7 +8171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="51">
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43525</v>
       </c>
@@ -8151,7 +8197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="51">
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43523</v>
       </c>
@@ -8177,7 +8223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="51">
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43511</v>
       </c>
@@ -8203,7 +8249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="34">
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43491</v>
       </c>
@@ -8229,7 +8275,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="34">
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43491</v>
       </c>
@@ -8255,7 +8301,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="34">
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43488</v>
       </c>
@@ -8281,7 +8327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="51">
+    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43481</v>
       </c>
@@ -8307,7 +8353,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="51">
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43481</v>
       </c>
@@ -8333,7 +8379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="51">
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43452</v>
       </c>
@@ -8359,7 +8405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="34">
+    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43428</v>
       </c>
@@ -8385,7 +8431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="34">
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43403</v>
       </c>
@@ -8411,7 +8457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="51">
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43395</v>
       </c>
@@ -8437,7 +8483,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="51">
+    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43359</v>
       </c>
@@ -8463,7 +8509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17">
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43343</v>
       </c>
@@ -8489,7 +8535,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="51">
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43341</v>
       </c>
@@ -8515,7 +8561,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="34">
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43340</v>
       </c>
@@ -8541,7 +8587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="51">
+    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43317</v>
       </c>
@@ -8567,7 +8613,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="34">
+    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43295</v>
       </c>
@@ -8593,7 +8639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="34">
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43295</v>
       </c>
@@ -8619,7 +8665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="34">
+    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43266</v>
       </c>
@@ -8645,7 +8691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="34">
+    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43260</v>
       </c>
@@ -8671,7 +8717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="51">
+    <row r="35" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43254</v>
       </c>
@@ -8697,7 +8743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="34">
+    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43253</v>
       </c>
@@ -8723,7 +8769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="34">
+    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43239</v>
       </c>
@@ -8749,7 +8795,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="51">
+    <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43239</v>
       </c>
@@ -8775,7 +8821,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="34">
+    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43205</v>
       </c>
@@ -8801,7 +8847,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="51">
+    <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43205</v>
       </c>
@@ -8827,7 +8873,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="68">
+    <row r="41" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43182</v>
       </c>
@@ -8853,7 +8899,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="51">
+    <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43182</v>
       </c>
@@ -8879,7 +8925,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="51">
+    <row r="43" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43178</v>
       </c>
@@ -8905,7 +8951,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="34">
+    <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43166</v>
       </c>
@@ -8931,7 +8977,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="51">
+    <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43162</v>
       </c>
@@ -8957,7 +9003,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="51">
+    <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43157</v>
       </c>
@@ -8983,7 +9029,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="51">
+    <row r="47" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43142</v>
       </c>
@@ -9009,7 +9055,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="34">
+    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43132</v>
       </c>
@@ -9035,7 +9081,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="34">
+    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43125</v>
       </c>
@@ -9061,7 +9107,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="34">
+    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43125</v>
       </c>
@@ -9087,7 +9133,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="51">
+    <row r="51" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43119</v>
       </c>
@@ -9113,7 +9159,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="51">
+    <row r="52" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43114</v>
       </c>
@@ -9139,7 +9185,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="51">
+    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43114</v>
       </c>
@@ -9165,7 +9211,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="34">
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43112</v>
       </c>
@@ -9191,7 +9237,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="51">
+    <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43103</v>
       </c>
@@ -9217,7 +9263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="34">
+    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43084</v>
       </c>
@@ -9243,7 +9289,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="34">
+    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43079</v>
       </c>
@@ -9269,7 +9315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="34">
+    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43057</v>
       </c>
@@ -9295,7 +9341,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="51">
+    <row r="59" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43052</v>
       </c>
@@ -9321,7 +9367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="51">
+    <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43050</v>
       </c>
@@ -9347,7 +9393,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="51">
+    <row r="61" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43013</v>
       </c>
@@ -9373,7 +9419,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="51">
+    <row r="62" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43009</v>
       </c>
@@ -9399,7 +9445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="51">
+    <row r="63" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43000</v>
       </c>
@@ -9425,7 +9471,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="34">
+    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42980</v>
       </c>
@@ -9451,7 +9497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="34">
+    <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42979</v>
       </c>
@@ -9477,7 +9523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="51">
+    <row r="66" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42965</v>
       </c>
@@ -9503,7 +9549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="51">
+    <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42964</v>
       </c>
@@ -9529,7 +9575,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="34">
+    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42934</v>
       </c>
@@ -9555,7 +9601,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="34">
+    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42932</v>
       </c>
@@ -9581,7 +9627,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="51">
+    <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42925</v>
       </c>
@@ -9607,7 +9653,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="51">
+    <row r="71" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42920</v>
       </c>
@@ -9633,7 +9679,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="34">
+    <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42915</v>
       </c>
@@ -9659,7 +9705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="17">
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42907</v>
       </c>
@@ -9685,7 +9731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="34">
+    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42907</v>
       </c>
@@ -9711,7 +9757,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="51">
+    <row r="75" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>42897</v>
       </c>
@@ -9737,7 +9783,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="34">
+    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>42890</v>
       </c>
@@ -9763,7 +9809,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="34">
+    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>42884</v>
       </c>
@@ -9789,7 +9835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17">
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>42864</v>
       </c>
@@ -9815,7 +9861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="34">
+    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42862</v>
       </c>
@@ -9841,7 +9887,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="34">
+    <row r="80" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>42839</v>
       </c>
@@ -9867,7 +9913,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="34">
+    <row r="81" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>42832</v>
       </c>
@@ -9893,7 +9939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="51">
+    <row r="82" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>42831</v>
       </c>
@@ -9919,7 +9965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="51">
+    <row r="83" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>42831</v>
       </c>
@@ -9945,7 +9991,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="34">
+    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>42826</v>
       </c>
@@ -9971,7 +10017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="34">
+    <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>42825</v>
       </c>
@@ -9997,7 +10043,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="51">
+    <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42821</v>
       </c>
@@ -10023,7 +10069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="34">
+    <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42820</v>
       </c>
@@ -10049,7 +10095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="34">
+    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42820</v>
       </c>
@@ -10075,7 +10121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="34">
+    <row r="89" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42801</v>
       </c>
@@ -10101,7 +10147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="34">
+    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42799</v>
       </c>
@@ -10127,7 +10173,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="34">
+    <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42791</v>
       </c>
@@ -10153,7 +10199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="34">
+    <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42791</v>
       </c>
@@ -10179,7 +10225,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="34">
+    <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42782</v>
       </c>
@@ -10205,7 +10251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="51">
+    <row r="94" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42782</v>
       </c>
@@ -10231,7 +10277,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="34">
+    <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>42747</v>
       </c>
@@ -10257,7 +10303,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="34">
+    <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>42745</v>
       </c>
@@ -10283,7 +10329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="51">
+    <row r="97" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>42739</v>
       </c>
@@ -10309,7 +10355,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="34">
+    <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42737</v>
       </c>
@@ -10335,7 +10381,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="34">
+    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42721</v>
       </c>
@@ -10361,7 +10407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="34">
+    <row r="100" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>42719</v>
       </c>
@@ -10387,7 +10433,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="34">
+    <row r="101" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42716</v>
       </c>
@@ -10413,7 +10459,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="51">
+    <row r="102" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>42703</v>
       </c>
@@ -10439,7 +10485,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="34">
+    <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42693</v>
       </c>
@@ -10465,7 +10511,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="51">
+    <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42675</v>
       </c>
@@ -10491,7 +10537,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="34">
+    <row r="105" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42655</v>
       </c>
@@ -10517,7 +10563,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="34">
+    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42645</v>
       </c>
@@ -10543,7 +10589,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="51">
+    <row r="107" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42639</v>
       </c>
@@ -10569,7 +10615,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="51">
+    <row r="108" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42629</v>
       </c>
@@ -10595,7 +10641,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="34">
+    <row r="109" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42618</v>
       </c>
@@ -10621,7 +10667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="34">
+    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42576</v>
       </c>
@@ -10647,7 +10693,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="34">
+    <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42565</v>
       </c>
@@ -10673,7 +10719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="51">
+    <row r="112" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>42559</v>
       </c>
@@ -10699,7 +10745,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="51">
+    <row r="113" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>42540</v>
       </c>
@@ -10725,7 +10771,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="51">
+    <row r="114" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>42520</v>
       </c>
@@ -10751,7 +10797,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="34">
+    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>42500</v>
       </c>
@@ -10777,7 +10823,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="34">
+    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>42484</v>
       </c>
@@ -10803,7 +10849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="34">
+    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>42450</v>
       </c>
@@ -10829,7 +10875,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="34">
+    <row r="118" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>42447</v>
       </c>
@@ -10855,7 +10901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="34">
+    <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>42434</v>
       </c>
@@ -10881,7 +10927,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="34">
+    <row r="120" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>42433</v>
       </c>
@@ -10907,7 +10953,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="34">
+    <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>42428</v>
       </c>
@@ -10933,7 +10979,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="51">
+    <row r="122" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>42417</v>
       </c>
@@ -10959,7 +11005,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="34">
+    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>42413</v>
       </c>
@@ -10985,7 +11031,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="34">
+    <row r="124" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>42405</v>
       </c>
@@ -11011,7 +11057,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="51">
+    <row r="125" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>42399</v>
       </c>
@@ -11037,7 +11083,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="34">
+    <row r="126" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>42392</v>
       </c>
@@ -11063,7 +11109,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="51">
+    <row r="127" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>42363</v>
       </c>
@@ -11089,7 +11135,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="34">
+    <row r="128" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>42363</v>
       </c>
@@ -11115,7 +11161,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="51">
+    <row r="129" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>42357</v>
       </c>
@@ -11141,7 +11187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="51">
+    <row r="130" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>42292</v>
       </c>
@@ -11167,7 +11213,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="51">
+    <row r="131" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>42277</v>
       </c>
@@ -11193,7 +11239,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="51">
+    <row r="132" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>42242</v>
       </c>
@@ -11219,7 +11265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="51">
+    <row r="133" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>42222</v>
       </c>
@@ -11245,7 +11291,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="51">
+    <row r="134" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>42213</v>
       </c>
@@ -11271,7 +11317,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="34">
+    <row r="135" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>42205</v>
       </c>
@@ -11297,7 +11343,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="34">
+    <row r="136" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>42205</v>
       </c>
@@ -11323,7 +11369,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="51">
+    <row r="137" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>42199</v>
       </c>
@@ -11349,7 +11395,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="51">
+    <row r="138" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>42198</v>
       </c>
@@ -11375,7 +11421,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="34">
+    <row r="139" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>42189</v>
       </c>
@@ -11401,7 +11447,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="51">
+    <row r="140" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>42186</v>
       </c>
@@ -11427,7 +11473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="51">
+    <row r="141" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>42162</v>
       </c>
@@ -11453,7 +11499,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="51">
+    <row r="142" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>42153</v>
       </c>
@@ -11479,7 +11525,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="34">
+    <row r="143" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>42149</v>
       </c>
@@ -11505,7 +11551,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="51">
+    <row r="144" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>42146</v>
       </c>
@@ -11531,7 +11577,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="51">
+    <row r="145" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>42111</v>
       </c>
@@ -11557,7 +11603,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="51">
+    <row r="146" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>42092</v>
       </c>
@@ -11583,7 +11629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="34">
+    <row r="147" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>42081</v>
       </c>
@@ -11609,7 +11655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="17">
+    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>42078</v>
       </c>
@@ -11635,7 +11681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="51">
+    <row r="149" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>42072</v>
       </c>
@@ -11661,7 +11707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="34">
+    <row r="150" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>42068</v>
       </c>
@@ -11687,7 +11733,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="51">
+    <row r="151" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>42064</v>
       </c>
@@ -11713,7 +11759,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="34">
+    <row r="152" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>42064</v>
       </c>
@@ -11739,7 +11785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="51">
+    <row r="153" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>42051</v>
       </c>
@@ -11765,7 +11811,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="34">
+    <row r="154" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>42040</v>
       </c>
@@ -11791,7 +11837,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="51">
+    <row r="155" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>42039</v>
       </c>
@@ -11817,7 +11863,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="51">
+    <row r="156" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>42038</v>
       </c>
@@ -11843,7 +11889,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="51">
+    <row r="157" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>42038</v>
       </c>
@@ -11869,7 +11915,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="51">
+    <row r="158" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>42037</v>
       </c>
@@ -11895,7 +11941,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="51">
+    <row r="159" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>42035</v>
       </c>
@@ -11921,7 +11967,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="34">
+    <row r="160" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>42027</v>
       </c>
@@ -11947,7 +11993,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="51">
+    <row r="161" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>42023</v>
       </c>
@@ -11973,7 +12019,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="51">
+    <row r="162" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>42018</v>
       </c>
@@ -11999,7 +12045,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="34">
+    <row r="163" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>42014</v>
       </c>
@@ -12025,7 +12071,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="51">
+    <row r="164" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>42013</v>
       </c>
@@ -12051,7 +12097,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="51">
+    <row r="165" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>42011</v>
       </c>
@@ -12077,7 +12123,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="51">
+    <row r="166" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>42009</v>
       </c>
@@ -12103,7 +12149,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="51">
+    <row r="167" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>42002</v>
       </c>
@@ -12129,7 +12175,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="34">
+    <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>42002</v>
       </c>
@@ -12155,7 +12201,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="51">
+    <row r="169" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>41959</v>
       </c>
@@ -12181,7 +12227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="51">
+    <row r="170" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41936</v>
       </c>
@@ -12207,7 +12253,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="51">
+    <row r="171" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41934</v>
       </c>
@@ -12233,7 +12279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="34">
+    <row r="172" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41925</v>
       </c>
@@ -12259,7 +12305,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="68">
+    <row r="173" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41917</v>
       </c>
@@ -12285,7 +12331,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="51">
+    <row r="174" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41916</v>
       </c>
@@ -12311,7 +12357,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="34">
+    <row r="175" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41911</v>
       </c>
@@ -12337,7 +12383,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="34">
+    <row r="176" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41899</v>
       </c>
@@ -12363,7 +12409,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="51">
+    <row r="177" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41893</v>
       </c>
@@ -12389,7 +12435,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="34">
+    <row r="178" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41886</v>
       </c>
@@ -12415,7 +12461,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="34">
+    <row r="179" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41881</v>
       </c>
@@ -12441,7 +12487,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="51">
+    <row r="180" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41874</v>
       </c>
@@ -12467,7 +12513,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="51">
+    <row r="181" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41871</v>
       </c>
@@ -12493,7 +12539,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="68">
+    <row r="182" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>41871</v>
       </c>
@@ -12519,7 +12565,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="34">
+    <row r="183" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>41862</v>
       </c>
@@ -12545,7 +12591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="51">
+    <row r="184" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>41843</v>
       </c>
@@ -12571,7 +12617,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="34">
+    <row r="185" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>41840</v>
       </c>
@@ -12597,7 +12643,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="34">
+    <row r="186" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>41838</v>
       </c>
@@ -12623,7 +12669,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="51">
+    <row r="187" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>41832</v>
       </c>
@@ -12649,7 +12695,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="51">
+    <row r="188" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>41827</v>
       </c>
@@ -12675,7 +12721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="51">
+    <row r="189" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>41825</v>
       </c>
@@ -12701,7 +12747,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="51">
+    <row r="190" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>41819</v>
       </c>
@@ -12727,7 +12773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="34">
+    <row r="191" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>41815</v>
       </c>
@@ -12753,7 +12799,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="34">
+    <row r="192" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>41814</v>
       </c>
@@ -12779,7 +12825,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="34">
+    <row r="193" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>41810</v>
       </c>
@@ -12805,7 +12851,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="51">
+    <row r="194" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>41799</v>
       </c>
@@ -12831,7 +12877,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="51">
+    <row r="195" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>41789</v>
       </c>
@@ -12857,7 +12903,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="34">
+    <row r="196" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>41783</v>
       </c>
@@ -12883,7 +12929,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="34">
+    <row r="197" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>41783</v>
       </c>
@@ -12909,7 +12955,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="34">
+    <row r="198" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>41781</v>
       </c>
@@ -12935,7 +12981,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="51">
+    <row r="199" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>41772</v>
       </c>
@@ -12961,7 +13007,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="34">
+    <row r="200" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>41764</v>
       </c>
@@ -12987,7 +13033,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="34">
+    <row r="201" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>41756</v>
       </c>
@@ -13013,7 +13059,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="51">
+    <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>41745</v>
       </c>
@@ -13039,7 +13085,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="51">
+    <row r="203" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>41742</v>
       </c>
@@ -13065,7 +13111,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="34">
+    <row r="204" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>41729</v>
       </c>
@@ -13091,7 +13137,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="68">
+    <row r="205" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>41727</v>
       </c>
@@ -13117,7 +13163,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="68">
+    <row r="206" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>41726</v>
       </c>
@@ -13143,7 +13189,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="34">
+    <row r="207" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>41719</v>
       </c>
@@ -13169,7 +13215,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="34">
+    <row r="208" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>41707</v>
       </c>
@@ -13195,7 +13241,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="34">
+    <row r="209" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>41705</v>
       </c>
@@ -13221,7 +13267,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="51">
+    <row r="210" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>41691</v>
       </c>
@@ -13247,7 +13293,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="51">
+    <row r="211" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>41690</v>
       </c>
@@ -13273,7 +13319,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="51">
+    <row r="212" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>41688</v>
       </c>
@@ -13299,7 +13345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="51">
+    <row r="213" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>41685</v>
       </c>
@@ -13325,7 +13371,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="17">
+    <row r="214" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>41665</v>
       </c>
@@ -13351,7 +13397,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="51">
+    <row r="215" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>41656</v>
       </c>
@@ -13377,7 +13423,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="34">
+    <row r="216" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>41653</v>
       </c>
@@ -13403,7 +13449,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="34">
+    <row r="217" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>41651</v>
       </c>
@@ -13429,7 +13475,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="51">
+    <row r="218" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>41648</v>
       </c>
@@ -13455,7 +13501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="51">
+    <row r="219" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>41640</v>
       </c>
@@ -13481,7 +13527,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="68">
+    <row r="220" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>41638</v>
       </c>
@@ -13507,7 +13553,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="51">
+    <row r="221" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>41637</v>
       </c>
@@ -13533,7 +13579,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="34">
+    <row r="222" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>41630</v>
       </c>
@@ -13559,7 +13605,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="34">
+    <row r="223" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>41628</v>
       </c>
@@ -13585,7 +13631,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="34">
+    <row r="224" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>41603</v>
       </c>
@@ -13611,7 +13657,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="51">
+    <row r="225" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>41597</v>
       </c>
@@ -13637,7 +13683,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="51">
+    <row r="226" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>41593</v>
       </c>
@@ -13663,7 +13709,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="51">
+    <row r="227" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>41588</v>
       </c>
@@ -13689,7 +13735,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="34">
+    <row r="228" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>41587</v>
       </c>
@@ -13715,7 +13761,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="34">
+    <row r="229" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>41579</v>
       </c>
@@ -13741,7 +13787,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="51">
+    <row r="230" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>41556</v>
       </c>
@@ -13767,7 +13813,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="51">
+    <row r="231" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>41540</v>
       </c>
@@ -13793,7 +13839,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="34">
+    <row r="232" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>41537</v>
       </c>
@@ -13819,7 +13865,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="51">
+    <row r="233" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>41522</v>
       </c>
@@ -13845,7 +13891,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="51">
+    <row r="234" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>41519</v>
       </c>
@@ -13871,7 +13917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="51">
+    <row r="235" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>41514</v>
       </c>
@@ -13897,7 +13943,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="34">
+    <row r="236" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>41503</v>
       </c>
@@ -13923,7 +13969,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="68">
+    <row r="237" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>41497</v>
       </c>
@@ -13949,7 +13995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="51">
+    <row r="238" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>41485</v>
       </c>
@@ -13975,7 +14021,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="34">
+    <row r="239" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>41467</v>
       </c>
@@ -14001,7 +14047,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="34">
+    <row r="240" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>41466</v>
       </c>
@@ -14027,7 +14073,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="51">
+    <row r="241" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>41461</v>
       </c>
@@ -14053,7 +14099,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="51">
+    <row r="242" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>41454</v>
       </c>
@@ -14079,7 +14125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="34">
+    <row r="243" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>41451</v>
       </c>
@@ -14105,7 +14151,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="34">
+    <row r="244" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>41450</v>
       </c>
@@ -14131,7 +14177,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="34">
+    <row r="245" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>41437</v>
       </c>
@@ -14157,7 +14203,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="34">
+    <row r="246" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>41436</v>
       </c>
@@ -14183,7 +14229,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="51">
+    <row r="247" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>41435</v>
       </c>
@@ -14209,7 +14255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="34">
+    <row r="248" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>41425</v>
       </c>
@@ -14235,7 +14281,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="51">
+    <row r="249" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>41424</v>
       </c>
@@ -14261,7 +14307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="51">
+    <row r="250" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>41423</v>
       </c>
@@ -14287,7 +14333,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="34">
+    <row r="251" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>41413</v>
       </c>
@@ -14313,7 +14359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="34">
+    <row r="252" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>41411</v>
       </c>
@@ -14339,7 +14385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="34">
+    <row r="253" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>41399</v>
       </c>
@@ -14365,7 +14411,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="34">
+    <row r="254" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>41397</v>
       </c>
@@ -14391,7 +14437,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="34">
+    <row r="255" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>41397</v>
       </c>
@@ -14417,7 +14463,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="34">
+    <row r="256" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>41393</v>
       </c>
@@ -14443,7 +14489,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="34">
+    <row r="257" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>41393</v>
       </c>
@@ -14469,7 +14515,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="34">
+    <row r="258" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>41385</v>
       </c>
@@ -14495,7 +14541,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="34">
+    <row r="259" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>41384</v>
       </c>
@@ -14521,7 +14567,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="34">
+    <row r="260" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>41382</v>
       </c>
@@ -14547,7 +14593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="34">
+    <row r="261" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>41381</v>
       </c>
@@ -14573,7 +14619,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="51">
+    <row r="262" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>41377</v>
       </c>
@@ -14599,7 +14645,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="51">
+    <row r="263" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>41359</v>
       </c>
@@ -14625,7 +14671,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="34">
+    <row r="264" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>41355</v>
       </c>
@@ -14651,7 +14697,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="34">
+    <row r="265" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>41354</v>
       </c>
@@ -14677,7 +14723,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="34">
+    <row r="266" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>41350</v>
       </c>
@@ -14703,7 +14749,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="17">
+    <row r="267" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>41343</v>
       </c>
@@ -14729,7 +14775,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="51">
+    <row r="268" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>41342</v>
       </c>
@@ -14755,7 +14801,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="34">
+    <row r="269" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>41340</v>
       </c>
@@ -14781,7 +14827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="51">
+    <row r="270" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>41329</v>
       </c>
@@ -14807,7 +14853,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="34">
+    <row r="271" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>41329</v>
       </c>
@@ -14833,7 +14879,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="34">
+    <row r="272" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>41328</v>
       </c>
@@ -14859,7 +14905,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="17">
+    <row r="273" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>41325</v>
       </c>
@@ -14885,7 +14931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="34">
+    <row r="274" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>41323</v>
       </c>
@@ -14911,7 +14957,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="51">
+    <row r="275" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>41313</v>
       </c>
@@ -14937,7 +14983,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="34">
+    <row r="276" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>41309</v>
       </c>
@@ -14963,7 +15009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="34">
+    <row r="277" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>41303</v>
       </c>
@@ -14989,7 +15035,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="34">
+    <row r="278" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>41296</v>
       </c>
@@ -15015,7 +15061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="34">
+    <row r="279" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>41291</v>
       </c>
@@ -15041,7 +15087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="34">
+    <row r="280" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>41284</v>
       </c>
@@ -15067,7 +15113,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="34">
+    <row r="281" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>41282</v>
       </c>
@@ -15093,7 +15139,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="51">
+    <row r="282" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>41278</v>
       </c>
@@ -15119,7 +15165,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="51">
+    <row r="283" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>41251</v>
       </c>
@@ -15145,7 +15191,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="34">
+    <row r="284" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>41244</v>
       </c>
@@ -15171,7 +15217,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="51">
+    <row r="285" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>41243</v>
       </c>
@@ -15197,7 +15243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="34">
+    <row r="286" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>41239</v>
       </c>
@@ -15223,7 +15269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="34">
+    <row r="287" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>41213</v>
       </c>
@@ -15249,7 +15295,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="34">
+    <row r="288" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>41212</v>
       </c>
@@ -15275,7 +15321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="34">
+    <row r="289" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>41196</v>
       </c>
@@ -15301,7 +15347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="51">
+    <row r="290" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41176</v>
       </c>
@@ -15327,7 +15373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="51">
+    <row r="291" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41170</v>
       </c>
@@ -15353,7 +15399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="34">
+    <row r="292" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41159</v>
       </c>
@@ -15379,7 +15425,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="51">
+    <row r="293" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41146</v>
       </c>
@@ -15405,7 +15451,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="34">
+    <row r="294" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41132</v>
       </c>
@@ -15431,7 +15477,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="34">
+    <row r="295" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41111</v>
       </c>
@@ -15457,7 +15503,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="51">
+    <row r="296" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41110</v>
       </c>
@@ -15483,7 +15529,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="51">
+    <row r="297" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41109</v>
       </c>
@@ -15509,7 +15555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="34">
+    <row r="298" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41106</v>
       </c>
@@ -15535,7 +15581,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="51">
+    <row r="299" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41104</v>
       </c>
@@ -15561,7 +15607,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="34">
+    <row r="300" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41104</v>
       </c>
@@ -15587,7 +15633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="34">
+    <row r="301" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41103</v>
       </c>
@@ -15613,7 +15659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="34">
+    <row r="302" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41100</v>
       </c>
@@ -15639,7 +15685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="51">
+    <row r="303" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41098</v>
       </c>
@@ -15665,7 +15711,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="34">
+    <row r="304" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41097</v>
       </c>
@@ -15691,7 +15737,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="51">
+    <row r="305" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41097</v>
       </c>
@@ -15717,7 +15763,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="51">
+    <row r="306" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41092</v>
       </c>
@@ -15743,7 +15789,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="51">
+    <row r="307" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41091</v>
       </c>
@@ -15769,7 +15815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="51">
+    <row r="308" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41090</v>
       </c>
@@ -15795,7 +15841,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="34">
+    <row r="309" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41083</v>
       </c>
@@ -15821,7 +15867,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="34">
+    <row r="310" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41070</v>
       </c>
@@ -15847,7 +15893,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="34">
+    <row r="311" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41063</v>
       </c>
@@ -15873,7 +15919,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="34">
+    <row r="312" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41062</v>
       </c>
@@ -15899,7 +15945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="51">
+    <row r="313" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41056</v>
       </c>
@@ -15925,7 +15971,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="34">
+    <row r="314" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41027</v>
       </c>
@@ -15951,7 +15997,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="51">
+    <row r="315" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41025</v>
       </c>
@@ -15977,7 +16023,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="34">
+    <row r="316" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41006</v>
       </c>
@@ -16003,7 +16049,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="34">
+    <row r="317" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41002</v>
       </c>
@@ -16029,7 +16075,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="34">
+    <row r="318" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>40998</v>
       </c>
@@ -16055,7 +16101,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="34">
+    <row r="319" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>40985</v>
       </c>
@@ -16081,7 +16127,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="34">
+    <row r="320" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>40980</v>
       </c>
@@ -16107,7 +16153,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="34">
+    <row r="321" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>40965</v>
       </c>
@@ -16133,7 +16179,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="34">
+    <row r="322" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>40964</v>
       </c>
@@ -16159,7 +16205,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="51">
+    <row r="323" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>40962</v>
       </c>
@@ -16185,7 +16231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="34">
+    <row r="324" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>40957</v>
       </c>
@@ -16211,7 +16257,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="34">
+    <row r="325" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>40952</v>
       </c>
@@ -16237,7 +16283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="51">
+    <row r="326" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>40947</v>
       </c>
@@ -16263,7 +16309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="34">
+    <row r="327" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>40944</v>
       </c>
@@ -16289,7 +16335,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="51">
+    <row r="328" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>40940</v>
       </c>
@@ -16315,7 +16361,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="17">
+    <row r="329" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>40935</v>
       </c>
@@ -16341,7 +16387,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="34">
+    <row r="330" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>40931</v>
       </c>
@@ -16367,7 +16413,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="51">
+    <row r="331" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>40927</v>
       </c>
@@ -16393,7 +16439,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="51">
+    <row r="332" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>40907</v>
       </c>
@@ -16419,7 +16465,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="51">
+    <row r="333" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>40891</v>
       </c>
@@ -16445,7 +16491,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="51">
+    <row r="334" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>40877</v>
       </c>
@@ -16471,7 +16517,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="34">
+    <row r="335" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>40872</v>
       </c>
@@ -16497,7 +16543,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="34">
+    <row r="336" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>40849</v>
       </c>
@@ -16523,7 +16569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="34">
+    <row r="337" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>40848</v>
       </c>
@@ -16549,7 +16595,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="34">
+    <row r="338" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>40838</v>
       </c>
@@ -16575,7 +16621,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="34">
+    <row r="339" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>40830</v>
       </c>
@@ -16601,7 +16647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="51">
+    <row r="340" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>40817</v>
       </c>
@@ -16627,7 +16673,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="34">
+    <row r="341" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>40806</v>
       </c>
@@ -16653,7 +16699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="34">
+    <row r="342" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>40788</v>
       </c>
@@ -16679,7 +16725,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="34">
+    <row r="343" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>40762</v>
       </c>
@@ -16705,7 +16751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="51">
+    <row r="344" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>40757</v>
       </c>
@@ -16731,7 +16777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="34">
+    <row r="345" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>40748</v>
       </c>
@@ -16757,7 +16803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="51">
+    <row r="346" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>40741</v>
       </c>
@@ -16783,7 +16829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="34">
+    <row r="347" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>40741</v>
       </c>
@@ -16809,7 +16855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="34">
+    <row r="348" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>40738</v>
       </c>
@@ -16835,7 +16881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="34">
+    <row r="349" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>40734</v>
       </c>
@@ -16861,7 +16907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="34">
+    <row r="350" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>40733</v>
       </c>
@@ -16887,7 +16933,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="51">
+    <row r="351" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>40723</v>
       </c>
@@ -16913,7 +16959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="34">
+    <row r="352" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>40713</v>
       </c>
@@ -16939,7 +16985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="68">
+    <row r="353" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>40712</v>
       </c>
@@ -16965,7 +17011,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="51">
+    <row r="354" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>40710</v>
       </c>
@@ -16991,7 +17037,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="34">
+    <row r="355" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>40710</v>
       </c>
@@ -17017,7 +17063,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="34">
+    <row r="356" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>40703</v>
       </c>
@@ -17043,7 +17089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="51">
+    <row r="357" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>40702</v>
       </c>
@@ -17069,7 +17115,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="34">
+    <row r="358" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>40685</v>
       </c>
@@ -17095,7 +17141,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="51">
+    <row r="359" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>40672</v>
       </c>
@@ -17121,7 +17167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="34">
+    <row r="360" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>40669</v>
       </c>
@@ -17147,7 +17193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="51">
+    <row r="361" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>40659</v>
       </c>
@@ -17173,7 +17219,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="51">
+    <row r="362" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>40652</v>
       </c>
@@ -17199,7 +17245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="51">
+    <row r="363" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>40645</v>
       </c>
@@ -17225,7 +17271,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="34">
+    <row r="364" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>40637</v>
       </c>
@@ -17251,7 +17297,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="51">
+    <row r="365" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>40636</v>
       </c>
@@ -17277,7 +17323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="34">
+    <row r="366" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>40631</v>
       </c>
@@ -17303,7 +17349,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="34">
+    <row r="367" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>40628</v>
       </c>
@@ -17329,7 +17375,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="51">
+    <row r="368" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>40627</v>
       </c>
@@ -17355,7 +17401,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="34">
+    <row r="369" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>40621</v>
       </c>
@@ -17381,7 +17427,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="51">
+    <row r="370" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>40619</v>
       </c>
@@ -17407,7 +17453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="34">
+    <row r="371" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>40618</v>
       </c>
@@ -17433,7 +17479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="34">
+    <row r="372" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>40614</v>
       </c>
@@ -17459,7 +17505,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="51">
+    <row r="373" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>40606</v>
       </c>
@@ -17485,7 +17531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="17">
+    <row r="374" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>40586</v>
       </c>
@@ -17511,7 +17557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="51">
+    <row r="375" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>40586</v>
       </c>
@@ -17537,7 +17583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="51">
+    <row r="376" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>40583</v>
       </c>
@@ -17563,7 +17609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="51">
+    <row r="377" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>40576</v>
       </c>
@@ -17589,7 +17635,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="34">
+    <row r="378" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>40574</v>
       </c>
@@ -17615,7 +17661,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="17">
+    <row r="379" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>40572</v>
       </c>
@@ -17641,7 +17687,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="34">
+    <row r="380" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>40560</v>
       </c>
@@ -17667,7 +17713,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="34">
+    <row r="381" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>40539</v>
       </c>
@@ -17693,7 +17739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="34">
+    <row r="382" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>40538</v>
       </c>
@@ -17719,7 +17765,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="34">
+    <row r="383" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>40532</v>
       </c>
@@ -17745,7 +17791,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="51">
+    <row r="384" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>40525</v>
       </c>
@@ -17771,7 +17817,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="34">
+    <row r="385" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>40521</v>
       </c>
@@ -17797,7 +17843,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="51">
+    <row r="386" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>40509</v>
       </c>
@@ -17823,7 +17869,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="51">
+    <row r="387" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>40501</v>
       </c>
@@ -17849,7 +17895,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="51">
+    <row r="388" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>40495</v>
       </c>
@@ -17875,7 +17921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="51">
+    <row r="389" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>40494</v>
       </c>
@@ -17901,7 +17947,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="51">
+    <row r="390" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>40475</v>
       </c>
@@ -17927,7 +17973,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="34">
+    <row r="391" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>40474</v>
       </c>
@@ -17953,7 +17999,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="51">
+    <row r="392" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>40471</v>
       </c>
@@ -17979,7 +18025,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="34">
+    <row r="393" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>40456</v>
       </c>
@@ -18005,7 +18051,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="51">
+    <row r="394" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>40446</v>
       </c>
@@ -18031,7 +18077,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="51">
+    <row r="395" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>40442</v>
       </c>
@@ -18057,7 +18103,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="51">
+    <row r="396" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>40424</v>
       </c>
@@ -18083,7 +18129,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="34">
+    <row r="397" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>40398</v>
       </c>
@@ -18109,7 +18155,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="68">
+    <row r="398" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>40398</v>
       </c>
@@ -18135,7 +18181,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="34">
+    <row r="399" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>40397</v>
       </c>
@@ -18161,7 +18207,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="51">
+    <row r="400" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>40394</v>
       </c>
@@ -18187,7 +18233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="51">
+    <row r="401" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>40383</v>
       </c>
@@ -18213,7 +18259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="51">
+    <row r="402" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>40362</v>
       </c>
@@ -18239,7 +18285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="34">
+    <row r="403" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>40360</v>
       </c>
@@ -18265,7 +18311,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="51">
+    <row r="404" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>40360</v>
       </c>
@@ -18291,7 +18337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="51">
+    <row r="405" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>40358</v>
       </c>
@@ -18317,7 +18363,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="34">
+    <row r="406" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>40345</v>
       </c>
@@ -18343,7 +18389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="34">
+    <row r="407" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>40342</v>
       </c>
@@ -18369,7 +18415,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="51">
+    <row r="408" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>40341</v>
       </c>
@@ -18395,7 +18441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="51">
+    <row r="409" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>40339</v>
       </c>
@@ -18421,7 +18467,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="34">
+    <row r="410" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>40324</v>
       </c>
@@ -18447,7 +18493,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="51">
+    <row r="411" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>40322</v>
       </c>
@@ -18473,7 +18519,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="51">
+    <row r="412" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>40321</v>
       </c>
@@ -18499,7 +18545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="34">
+    <row r="413" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>40314</v>
       </c>
@@ -18525,7 +18571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="51">
+    <row r="414" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>40306</v>
       </c>
@@ -18551,7 +18597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="51">
+    <row r="415" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>40305</v>
       </c>
@@ -18577,7 +18623,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="34">
+    <row r="416" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>40302</v>
       </c>
@@ -18603,7 +18649,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="34">
+    <row r="417" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>40285</v>
       </c>
@@ -18629,7 +18675,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="51">
+    <row r="418" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>40278</v>
       </c>
@@ -18655,7 +18701,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="34">
+    <row r="419" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>40275</v>
       </c>
@@ -18681,7 +18727,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="51">
+    <row r="420" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>40269</v>
       </c>
@@ -18707,7 +18753,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="51">
+    <row r="421" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>40264</v>
       </c>
@@ -18733,7 +18779,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="51">
+    <row r="422" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>40256</v>
       </c>
@@ -18759,7 +18805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="51">
+    <row r="423" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>40250</v>
       </c>
@@ -18785,7 +18831,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="51">
+    <row r="424" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>40229</v>
       </c>
@@ -18811,7 +18857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="51">
+    <row r="425" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>40228</v>
       </c>
@@ -18837,7 +18883,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="51">
+    <row r="426" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>40215</v>
       </c>
@@ -18863,7 +18909,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="51">
+    <row r="427" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>40211</v>
       </c>
@@ -18889,7 +18935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="51">
+    <row r="428" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>40208</v>
       </c>
@@ -18915,7 +18961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="51">
+    <row r="429" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>40207</v>
       </c>
@@ -18941,7 +18987,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="51">
+    <row r="430" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>40196</v>
       </c>
@@ -18967,7 +19013,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="34">
+    <row r="431" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>40195</v>
       </c>
@@ -18993,7 +19039,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="34">
+    <row r="432" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>40193</v>
       </c>
@@ -19019,7 +19065,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="51">
+    <row r="433" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>40188</v>
       </c>
@@ -19045,7 +19091,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="51">
+    <row r="434" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>40179</v>
       </c>
@@ -19071,7 +19117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="51">
+    <row r="435" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>40176</v>
       </c>
@@ -19097,7 +19143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="34">
+    <row r="436" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>40157</v>
       </c>
@@ -19123,7 +19169,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="34">
+    <row r="437" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>40147</v>
       </c>
@@ -19149,7 +19195,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="34">
+    <row r="438" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>40133</v>
       </c>
@@ -19175,7 +19221,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="51">
+    <row r="439" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>40113</v>
       </c>
@@ -19201,7 +19247,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="51">
+    <row r="440" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>40112</v>
       </c>
@@ -19227,7 +19273,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="51">
+    <row r="441" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>40104</v>
       </c>
@@ -19253,7 +19299,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="51">
+    <row r="442" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>40104</v>
       </c>
@@ -19279,7 +19325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="51">
+    <row r="443" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>40099</v>
       </c>
@@ -19305,7 +19351,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="68">
+    <row r="444" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>40091</v>
       </c>
@@ -19331,7 +19377,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="51">
+    <row r="445" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>40071</v>
       </c>
@@ -19357,7 +19403,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="51">
+    <row r="446" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>40063</v>
       </c>
@@ -19383,7 +19429,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="51">
+    <row r="447" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>40062</v>
       </c>
@@ -19409,7 +19455,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="51">
+    <row r="448" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>40056</v>
       </c>
@@ -19435,7 +19481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="51">
+    <row r="449" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>40055</v>
       </c>
@@ -19461,7 +19507,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="51">
+    <row r="450" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>40048</v>
       </c>
@@ -19487,7 +19533,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="68">
+    <row r="451" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>40046</v>
       </c>
@@ -19513,7 +19559,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="51">
+    <row r="452" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>40045</v>
       </c>
@@ -19539,7 +19585,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="51">
+    <row r="453" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>40030</v>
       </c>
@@ -19565,7 +19611,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="51">
+    <row r="454" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>39992</v>
       </c>
@@ -19591,7 +19637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="68">
+    <row r="455" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>39984</v>
       </c>
@@ -19617,7 +19663,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="68">
+    <row r="456" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>39959</v>
       </c>
@@ -19643,7 +19689,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="68">
+    <row r="457" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>39957</v>
       </c>
@@ -19669,7 +19715,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="34">
+    <row r="458" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>39950</v>
       </c>
@@ -19695,7 +19741,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="51">
+    <row r="459" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>39947</v>
       </c>
@@ -19721,7 +19767,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="51">
+    <row r="460" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>39943</v>
       </c>
@@ -19747,7 +19793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="51">
+    <row r="461" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>39939</v>
       </c>
@@ -19773,7 +19819,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="68">
+    <row r="462" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>39936</v>
       </c>
@@ -19799,7 +19845,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="68">
+    <row r="463" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>39936</v>
       </c>
@@ -19825,7 +19871,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="51">
+    <row r="464" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>39928</v>
       </c>
@@ -19851,7 +19897,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="51">
+    <row r="465" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>39914</v>
       </c>
@@ -19877,7 +19923,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="51">
+    <row r="466" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>39908</v>
       </c>
@@ -19903,7 +19949,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="51">
+    <row r="467" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>39904</v>
       </c>
@@ -19929,7 +19975,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="51">
+    <row r="468" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>39893</v>
       </c>
@@ -19955,7 +20001,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="34">
+    <row r="469" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>39885</v>
       </c>
@@ -19981,7 +20027,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="68">
+    <row r="470" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>39883</v>
       </c>
@@ -20007,7 +20053,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="51">
+    <row r="471" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>39881</v>
       </c>
@@ -20033,7 +20079,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="34">
+    <row r="472" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>39873</v>
       </c>
@@ -20059,7 +20105,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="51">
+    <row r="473" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>39858</v>
       </c>
@@ -20085,7 +20131,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="51">
+    <row r="474" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>39857</v>
       </c>
@@ -20111,7 +20157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="51">
+    <row r="475" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>39855</v>
       </c>
@@ -20137,7 +20183,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="51">
+    <row r="476" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>39855</v>
       </c>
@@ -20163,7 +20209,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="51">
+    <row r="477" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>39852</v>
       </c>
@@ -20189,7 +20235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="51">
+    <row r="478" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>39849</v>
       </c>
@@ -20215,7 +20261,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="68">
+    <row r="479" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>39846</v>
       </c>
@@ -20241,7 +20287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="51">
+    <row r="480" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>39845</v>
       </c>
@@ -20267,7 +20313,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="34">
+    <row r="481" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>39837</v>
       </c>
@@ -20293,7 +20339,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="51">
+    <row r="482" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>39837</v>
       </c>
@@ -20319,7 +20365,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="34">
+    <row r="483" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>39829</v>
       </c>
@@ -20345,7 +20391,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="51">
+    <row r="484" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>39823</v>
       </c>
@@ -20371,7 +20417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="51">
+    <row r="485" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>39819</v>
       </c>
@@ -20397,7 +20443,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="51">
+    <row r="486" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>39814</v>
       </c>
@@ -20423,7 +20469,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="17">
+    <row r="487" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>39810</v>
       </c>
@@ -20449,7 +20495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="34">
+    <row r="488" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>39803</v>
       </c>
@@ -20475,7 +20521,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="34">
+    <row r="489" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>39789</v>
       </c>
@@ -20501,7 +20547,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="34">
+    <row r="490" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>39783</v>
       </c>
@@ -20527,7 +20573,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="51">
+    <row r="491" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>39781</v>
       </c>
@@ -20553,7 +20599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="51">
+    <row r="492" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>39765</v>
       </c>
@@ -20579,7 +20625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="34">
+    <row r="493" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>39748</v>
       </c>
@@ -20605,7 +20651,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="34">
+    <row r="494" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>39744</v>
       </c>
@@ -20631,7 +20677,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="34">
+    <row r="495" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>39739</v>
       </c>
@@ -20657,7 +20703,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="51">
+    <row r="496" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>39719</v>
       </c>
@@ -20683,7 +20729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="34">
+    <row r="497" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>39706</v>
       </c>
@@ -20709,7 +20755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="17">
+    <row r="498" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>39705</v>
       </c>
@@ -20735,7 +20781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="34">
+    <row r="499" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>39701</v>
       </c>
@@ -20761,7 +20807,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="34">
+    <row r="500" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>39690</v>
       </c>
@@ -20787,7 +20833,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="51">
+    <row r="501" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>39690</v>
       </c>
@@ -20813,7 +20859,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="34">
+    <row r="502" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>39680</v>
       </c>
@@ -20839,7 +20885,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="34">
+    <row r="503" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>39649</v>
       </c>
@@ -20865,7 +20911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="51">
+    <row r="504" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>39639</v>
       </c>
@@ -20891,7 +20937,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="34">
+    <row r="505" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>39637</v>
       </c>
@@ -20917,7 +20963,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="34">
+    <row r="506" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>39629</v>
       </c>
@@ -20943,7 +20989,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="34">
+    <row r="507" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>39627</v>
       </c>
@@ -20969,7 +21015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="34">
+    <row r="508" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>39621</v>
       </c>
@@ -20995,7 +21041,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="34">
+    <row r="509" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>39620</v>
       </c>
@@ -21021,7 +21067,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="34">
+    <row r="510" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>39617</v>
       </c>
@@ -21047,7 +21093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="34">
+    <row r="511" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>39614</v>
       </c>
@@ -21073,7 +21119,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="17">
+    <row r="512" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>39614</v>
       </c>
@@ -21099,7 +21145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="34">
+    <row r="513" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>39612</v>
       </c>
@@ -21125,7 +21171,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="34">
+    <row r="514" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>39606</v>
       </c>
@@ -21151,7 +21197,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="51">
+    <row r="515" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>39599</v>
       </c>
@@ -21177,7 +21223,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="34">
+    <row r="516" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>39598</v>
       </c>
@@ -21203,7 +21249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="34">
+    <row r="517" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>39592</v>
       </c>
@@ -21229,7 +21275,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="51">
+    <row r="518" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>39588</v>
       </c>
@@ -21255,7 +21301,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="34">
+    <row r="519" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>39578</v>
       </c>
@@ -21281,7 +21327,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="34">
+    <row r="520" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>39571</v>
       </c>
@@ -21307,7 +21353,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="34">
+    <row r="521" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>39571</v>
       </c>
@@ -21333,7 +21379,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="34">
+    <row r="522" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>39569</v>
       </c>
@@ -21359,7 +21405,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="51">
+    <row r="523" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>39568</v>
       </c>
@@ -21385,7 +21431,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="51">
+    <row r="524" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>39565</v>
       </c>
@@ -21411,7 +21457,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="51">
+    <row r="525" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>39564</v>
       </c>
@@ -21437,7 +21483,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="34">
+    <row r="526" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>39559</v>
       </c>
@@ -21463,7 +21509,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="51">
+    <row r="527" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>39559</v>
       </c>
@@ -21489,7 +21535,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="34">
+    <row r="528" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>39551</v>
       </c>
@@ -21515,7 +21561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="34">
+    <row r="529" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>39549</v>
       </c>
@@ -21541,7 +21587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="34">
+    <row r="530" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>39541</v>
       </c>
@@ -21567,7 +21613,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="34">
+    <row r="531" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>39538</v>
       </c>
@@ -21593,7 +21639,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="34">
+    <row r="532" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>39526</v>
       </c>
@@ -21619,7 +21665,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="34">
+    <row r="533" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>39523</v>
       </c>
@@ -21645,7 +21691,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="51">
+    <row r="534" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>39522</v>
       </c>
@@ -21671,7 +21717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="51">
+    <row r="535" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>39518</v>
       </c>
@@ -21697,7 +21743,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="51">
+    <row r="536" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>39515</v>
       </c>
@@ -21723,7 +21769,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="34">
+    <row r="537" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>39513</v>
       </c>
@@ -21749,7 +21795,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="51">
+    <row r="538" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>39508</v>
       </c>
@@ -21775,7 +21821,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="34">
+    <row r="539" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>39508</v>
       </c>
@@ -21801,7 +21847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="34">
+    <row r="540" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>39504</v>
       </c>
@@ -21827,7 +21873,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="34">
+    <row r="541" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>39502</v>
       </c>
@@ -21853,7 +21899,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="51">
+    <row r="542" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>39502</v>
       </c>
@@ -21879,7 +21925,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="51">
+    <row r="543" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>39497</v>
       </c>
@@ -21905,7 +21951,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="51">
+    <row r="544" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>39497</v>
       </c>
@@ -21931,7 +21977,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="34">
+    <row r="545" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>39496</v>
       </c>
@@ -21957,7 +22003,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="34">
+    <row r="546" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>39495</v>
       </c>
@@ -21983,7 +22029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="34">
+    <row r="547" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>39494</v>
       </c>
@@ -22009,7 +22055,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="34">
+    <row r="548" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>39491</v>
       </c>
@@ -22035,7 +22081,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="51">
+    <row r="549" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>39483</v>
       </c>
@@ -22061,7 +22107,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="51">
+    <row r="550" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>39479</v>
       </c>
@@ -22087,7 +22133,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="34">
+    <row r="551" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>39479</v>
       </c>
@@ -22113,7 +22159,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="34">
+    <row r="552" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>39471</v>
       </c>
@@ -22139,7 +22185,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="51">
+    <row r="553" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>39461</v>
       </c>
@@ -22165,7 +22211,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="51">
+    <row r="554" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>39458</v>
       </c>
@@ -22191,7 +22237,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="51">
+    <row r="555" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>39445</v>
       </c>
@@ -22217,7 +22263,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="51">
+    <row r="556" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>39444</v>
       </c>
@@ -22243,7 +22289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="34">
+    <row r="557" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>39442</v>
       </c>
@@ -22269,7 +22315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="34">
+    <row r="558" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>39429</v>
       </c>
@@ -22295,7 +22341,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="51">
+    <row r="559" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>39424</v>
       </c>
@@ -22321,7 +22367,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="34">
+    <row r="560" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>39417</v>
       </c>
@@ -22347,7 +22393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="51">
+    <row r="561" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>39415</v>
       </c>
@@ -22373,7 +22419,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="34">
+    <row r="562" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>39405</v>
       </c>
@@ -22399,7 +22445,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="51">
+    <row r="563" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>39389</v>
       </c>
@@ -22425,7 +22471,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="51">
+    <row r="564" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>39389</v>
       </c>
@@ -22451,7 +22497,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="51">
+    <row r="565" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>39378</v>
       </c>
@@ -22477,7 +22523,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="34">
+    <row r="566" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>39377</v>
       </c>
@@ -22503,7 +22549,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="51">
+    <row r="567" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>39367</v>
       </c>
@@ -22529,7 +22575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="51">
+    <row r="568" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>39359</v>
       </c>
@@ -22555,7 +22601,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="51">
+    <row r="569" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>39354</v>
       </c>
@@ -22581,7 +22627,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="51">
+    <row r="570" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>39330</v>
       </c>
@@ -22607,7 +22653,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="51">
+    <row r="571" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>39321</v>
       </c>
@@ -22633,7 +22679,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="51">
+    <row r="572" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>39317</v>
       </c>
@@ -22659,7 +22705,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="51">
+    <row r="573" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>39299</v>
       </c>
@@ -22685,7 +22731,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="34">
+    <row r="574" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>39289</v>
       </c>
@@ -22711,7 +22757,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="34">
+    <row r="575" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>39280</v>
       </c>
@@ -22737,7 +22783,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="34">
+    <row r="576" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>39277</v>
       </c>
@@ -22763,7 +22809,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="68">
+    <row r="577" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>39268</v>
       </c>
@@ -22789,7 +22835,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="34">
+    <row r="578" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>39266</v>
       </c>
@@ -22815,7 +22861,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="51">
+    <row r="579" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>39266</v>
       </c>
@@ -22841,7 +22887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="34">
+    <row r="580" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>39261</v>
       </c>
@@ -22867,7 +22913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="51">
+    <row r="581" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>39256</v>
       </c>
@@ -22893,7 +22939,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="51">
+    <row r="582" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>39255</v>
       </c>
@@ -22919,7 +22965,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="51">
+    <row r="583" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>39254</v>
       </c>
@@ -22945,7 +22991,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="51">
+    <row r="584" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>39250</v>
       </c>
@@ -22971,7 +23017,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="51">
+    <row r="585" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>39250</v>
       </c>
@@ -22997,7 +23043,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="51">
+    <row r="586" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>39249</v>
       </c>
@@ -23023,7 +23069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="34">
+    <row r="587" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>39235</v>
       </c>
@@ -23049,7 +23095,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="34">
+    <row r="588" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>39222</v>
       </c>
@@ -23075,7 +23121,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="51">
+    <row r="589" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>39222</v>
       </c>
@@ -23101,7 +23147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="51">
+    <row r="590" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>39220</v>
       </c>
@@ -23127,7 +23173,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="51">
+    <row r="591" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>39212</v>
       </c>
@@ -23153,7 +23199,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="51">
+    <row r="592" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>39211</v>
       </c>
@@ -23179,7 +23225,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="68">
+    <row r="593" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>39207</v>
       </c>
@@ -23205,7 +23251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="51">
+    <row r="594" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>39191</v>
       </c>
@@ -23231,7 +23277,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="51">
+    <row r="595" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>39187</v>
       </c>
@@ -23257,7 +23303,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="34">
+    <row r="596" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>39173</v>
       </c>
@@ -23283,7 +23329,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="51">
+    <row r="597" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>39172</v>
       </c>
@@ -23309,7 +23355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="34">
+    <row r="598" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>39170</v>
       </c>
@@ -23335,7 +23381,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="51">
+    <row r="599" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>39167</v>
       </c>
@@ -23361,7 +23407,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="34">
+    <row r="600" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>39166</v>
       </c>
@@ -23387,7 +23433,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="51">
+    <row r="601" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>39162</v>
       </c>
@@ -23413,7 +23459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="34">
+    <row r="602" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>39160</v>
       </c>
@@ -23439,7 +23485,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="51">
+    <row r="603" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>39160</v>
       </c>
@@ -23465,7 +23511,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="34">
+    <row r="604" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>39159</v>
       </c>
@@ -23491,7 +23537,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="51">
+    <row r="605" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>39154</v>
       </c>
@@ -23517,7 +23563,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="68">
+    <row r="606" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>39151</v>
       </c>
@@ -23543,7 +23589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="34">
+    <row r="607" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>39145</v>
       </c>
@@ -23569,7 +23615,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="17">
+    <row r="608" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>39145</v>
       </c>
@@ -23595,7 +23641,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="17">
+    <row r="609" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>39140</v>
       </c>
@@ -23621,7 +23667,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="34">
+    <row r="610" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>39133</v>
       </c>
@@ -23647,7 +23693,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="34">
+    <row r="611" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>39132</v>
       </c>
@@ -23673,7 +23719,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="34">
+    <row r="612" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>39123</v>
       </c>
@@ -23699,7 +23745,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="34">
+    <row r="613" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>39104</v>
       </c>
@@ -23725,7 +23771,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="34">
+    <row r="614" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>39088</v>
       </c>
@@ -23751,7 +23797,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="34">
+    <row r="615" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>39085</v>
       </c>
@@ -23777,7 +23823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="51">
+    <row r="616" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>39084</v>
       </c>
@@ -23803,7 +23849,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="51">
+    <row r="617" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>39083</v>
       </c>
@@ -23829,7 +23875,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="34">
+    <row r="618" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>39069</v>
       </c>
@@ -23855,7 +23901,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="51">
+    <row r="619" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>39065</v>
       </c>
@@ -23881,7 +23927,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="34">
+    <row r="620" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>39060</v>
       </c>
@@ -23907,7 +23953,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="51">
+    <row r="621" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>39055</v>
       </c>
@@ -23933,7 +23979,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="51">
+    <row r="622" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>39054</v>
       </c>
@@ -23959,7 +24005,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="34">
+    <row r="623" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>39048</v>
       </c>
@@ -23985,7 +24031,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="51">
+    <row r="624" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>39046</v>
       </c>
@@ -24011,7 +24057,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="51">
+    <row r="625" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>39040</v>
       </c>
@@ -24037,7 +24083,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="51">
+    <row r="626" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>39035</v>
       </c>
@@ -24063,7 +24109,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="34">
+    <row r="627" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>39032</v>
       </c>
@@ -24089,7 +24135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="51">
+    <row r="628" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>39031</v>
       </c>
@@ -24115,7 +24161,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="34">
+    <row r="629" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>39026</v>
       </c>
@@ -24141,7 +24187,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="34">
+    <row r="630" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>39016</v>
       </c>
@@ -24167,7 +24213,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="51">
+    <row r="631" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>39016</v>
       </c>
@@ -24193,7 +24239,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="34">
+    <row r="632" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>39012</v>
       </c>
@@ -24219,7 +24265,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="34">
+    <row r="633" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>38999</v>
       </c>
@@ -24245,7 +24291,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="34">
+    <row r="634" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>38996</v>
       </c>
@@ -24271,7 +24317,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="51">
+    <row r="635" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>38993</v>
       </c>
@@ -24297,7 +24343,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="34">
+    <row r="636" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>38987</v>
       </c>
@@ -24323,7 +24369,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="34">
+    <row r="637" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>38986</v>
       </c>
@@ -24349,7 +24395,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="51">
+    <row r="638" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>38986</v>
       </c>
@@ -24375,7 +24421,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="34">
+    <row r="639" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>38985</v>
       </c>
@@ -24401,7 +24447,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="51">
+    <row r="640" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>38963</v>
       </c>
@@ -24427,7 +24473,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="34">
+    <row r="641" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>38962</v>
       </c>
@@ -24453,7 +24499,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="34">
+    <row r="642" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>38955</v>
       </c>
@@ -24479,7 +24525,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="34">
+    <row r="643" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>38954</v>
       </c>
@@ -24505,7 +24551,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="51">
+    <row r="644" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>38944</v>
       </c>
@@ -24531,7 +24577,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="34">
+    <row r="645" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>38941</v>
       </c>
@@ -24557,7 +24603,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="34">
+    <row r="646" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>38935</v>
       </c>
@@ -24583,7 +24629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="34">
+    <row r="647" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>38934</v>
       </c>
@@ -24609,7 +24655,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="51">
+    <row r="648" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>38920</v>
       </c>
@@ -24635,7 +24681,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="34">
+    <row r="649" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>38920</v>
       </c>
@@ -24661,7 +24707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="51">
+    <row r="650" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>38893</v>
       </c>
@@ -24687,7 +24733,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="34">
+    <row r="651" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>38891</v>
       </c>
@@ -24713,7 +24759,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="34">
+    <row r="652" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>38890</v>
       </c>
@@ -24739,7 +24785,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="34">
+    <row r="653" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>38889</v>
       </c>
@@ -24765,7 +24811,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="34">
+    <row r="654" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>38888</v>
       </c>
@@ -24791,7 +24837,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="34">
+    <row r="655" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>38887</v>
       </c>
@@ -24817,7 +24863,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="34">
+    <row r="656" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>38882</v>
       </c>
@@ -24843,7 +24889,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="34">
+    <row r="657" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>38881</v>
       </c>
@@ -24869,7 +24915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="34">
+    <row r="658" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>38880</v>
       </c>
@@ -24895,7 +24941,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="34">
+    <row r="659" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>38871</v>
       </c>
@@ -24921,7 +24967,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="34">
+    <row r="660" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>38869</v>
       </c>
@@ -24947,7 +24993,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="51">
+    <row r="661" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>38864</v>
       </c>
@@ -24973,7 +25019,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="51">
+    <row r="662" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>38863</v>
       </c>
@@ -24999,7 +25045,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="34">
+    <row r="663" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>38863</v>
       </c>
@@ -25025,7 +25071,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="34">
+    <row r="664" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>38855</v>
       </c>
@@ -25051,7 +25097,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="51">
+    <row r="665" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>38853</v>
       </c>
@@ -25077,7 +25123,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="51">
+    <row r="666" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>38850</v>
       </c>
@@ -25103,7 +25149,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="51">
+    <row r="667" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>38849</v>
       </c>
@@ -25129,7 +25175,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="34">
+    <row r="668" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>38849</v>
       </c>
@@ -25155,7 +25201,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="51">
+    <row r="669" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>38849</v>
       </c>
@@ -25181,7 +25227,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="34">
+    <row r="670" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>38848</v>
       </c>
@@ -25207,7 +25253,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="34">
+    <row r="671" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>38830</v>
       </c>
@@ -25233,7 +25279,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="51">
+    <row r="672" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>38828</v>
       </c>
@@ -25259,7 +25305,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="51">
+    <row r="673" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>38827</v>
       </c>
@@ -25285,7 +25331,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="51">
+    <row r="674" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>38821</v>
       </c>
@@ -25311,7 +25357,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="34">
+    <row r="675" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>38818</v>
       </c>
@@ -25337,7 +25383,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="34">
+    <row r="676" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>38802</v>
       </c>
@@ -25363,7 +25409,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="51">
+    <row r="677" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>38799</v>
       </c>
@@ -25389,7 +25435,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="51">
+    <row r="678" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>38795</v>
       </c>
@@ -25415,7 +25461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="51">
+    <row r="679" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>38794</v>
       </c>
@@ -25441,7 +25487,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="34">
+    <row r="680" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>38766</v>
       </c>
@@ -25467,7 +25513,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="34">
+    <row r="681" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>38765</v>
       </c>
@@ -25493,7 +25539,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="34">
+    <row r="682" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>38763</v>
       </c>
@@ -25519,7 +25565,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="34">
+    <row r="683" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>38760</v>
       </c>
@@ -25545,7 +25591,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="51">
+    <row r="684" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>38754</v>
       </c>
@@ -25571,7 +25617,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="34">
+    <row r="685" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>38745</v>
       </c>
@@ -25597,7 +25643,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="34">
+    <row r="686" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>38736</v>
       </c>
@@ -25623,7 +25669,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="51">
+    <row r="687" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>38732</v>
       </c>
@@ -25649,7 +25695,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="51">
+    <row r="688" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>38726</v>
       </c>
@@ -25675,7 +25721,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="34">
+    <row r="689" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>38716</v>
       </c>
@@ -25701,7 +25747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="51">
+    <row r="690" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>38701</v>
       </c>
@@ -25727,7 +25773,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="34">
+    <row r="691" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>38701</v>
       </c>
@@ -25753,7 +25799,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="51">
+    <row r="692" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>38701</v>
       </c>
@@ -25779,7 +25825,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="51">
+    <row r="693" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>38701</v>
       </c>
@@ -25805,7 +25851,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="51">
+    <row r="694" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>38701</v>
       </c>
@@ -25831,7 +25877,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="34">
+    <row r="695" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>38681</v>
       </c>
@@ -25857,7 +25903,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="34">
+    <row r="696" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>38665</v>
       </c>
@@ -25883,7 +25929,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="51">
+    <row r="697" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>38657</v>
       </c>
@@ -25909,7 +25955,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="51">
+    <row r="698" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>38656</v>
       </c>
@@ -25935,7 +25981,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="34">
+    <row r="699" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>38651</v>
       </c>
@@ -25961,7 +26007,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="34">
+    <row r="700" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>38621</v>
       </c>
@@ -25987,7 +26033,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="34">
+    <row r="701" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>38621</v>
       </c>
@@ -26013,7 +26059,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="34">
+    <row r="702" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>38618</v>
       </c>
@@ -26039,7 +26085,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="51">
+    <row r="703" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>38608</v>
       </c>
@@ -26065,7 +26111,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="51">
+    <row r="704" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>38607</v>
       </c>
@@ -26091,7 +26137,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="34">
+    <row r="705" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>38592</v>
       </c>
@@ -26117,7 +26163,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="34">
+    <row r="706" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>38581</v>
       </c>
@@ -26143,7 +26189,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="17">
+    <row r="707" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>38579</v>
       </c>
@@ -26169,7 +26215,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="51">
+    <row r="708" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>38578</v>
       </c>
@@ -26195,7 +26241,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="51">
+    <row r="709" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>38578</v>
       </c>
@@ -26221,7 +26267,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="51">
+    <row r="710" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>38548</v>
       </c>
@@ -26247,7 +26293,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="34">
+    <row r="711" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>38546</v>
       </c>
@@ -26273,7 +26319,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="51">
+    <row r="712" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>38543</v>
       </c>
@@ -26299,7 +26345,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="51">
+    <row r="713" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>38537</v>
       </c>
@@ -26325,7 +26371,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="51">
+    <row r="714" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>38533</v>
       </c>
@@ -26351,7 +26397,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="51">
+    <row r="715" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>38528</v>
       </c>
@@ -26377,7 +26423,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="51">
+    <row r="716" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>38526</v>
       </c>
@@ -26403,7 +26449,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="34">
+    <row r="717" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>38514</v>
       </c>
@@ -26429,7 +26475,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="17">
+    <row r="718" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>38507</v>
       </c>
@@ -26455,7 +26501,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="34">
+    <row r="719" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>38507</v>
       </c>
@@ -26481,7 +26527,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="51">
+    <row r="720" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>38501</v>
       </c>
@@ -26507,7 +26553,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="51">
+    <row r="721" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>38501</v>
       </c>
@@ -26533,7 +26579,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="51">
+    <row r="722" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>38492</v>
       </c>
@@ -26559,7 +26605,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="34">
+    <row r="723" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>38484</v>
       </c>
@@ -26585,7 +26631,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="34">
+    <row r="724" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>38478</v>
       </c>
@@ -26611,7 +26657,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="34">
+    <row r="725" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>38467</v>
       </c>
@@ -26637,7 +26683,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="34">
+    <row r="726" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>38429</v>
       </c>
@@ -26663,7 +26709,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="51">
+    <row r="727" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>38425</v>
       </c>
@@ -26689,7 +26735,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="34">
+    <row r="728" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>38415</v>
       </c>
@@ -26715,7 +26761,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="51">
+    <row r="729" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>38412</v>
       </c>
@@ -26741,7 +26787,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="34">
+    <row r="730" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>38407</v>
       </c>
@@ -26767,7 +26813,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="51">
+    <row r="731" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>38400</v>
       </c>
@@ -26793,7 +26839,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="51">
+    <row r="732" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>38397</v>
       </c>
@@ -26819,7 +26865,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="51">
+    <row r="733" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>38387</v>
       </c>
@@ -26845,7 +26891,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="34">
+    <row r="734" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>38373</v>
       </c>
@@ -26871,7 +26917,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="51">
+    <row r="735" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>38353</v>
       </c>
@@ -26897,7 +26943,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="34">
+    <row r="736" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>38353</v>
       </c>
@@ -26923,7 +26969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="51">
+    <row r="737" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>38341</v>
       </c>
@@ -26949,7 +26995,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="738" spans="1:8" ht="51">
+    <row r="738" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>38341</v>
       </c>
@@ -26975,7 +27021,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="34">
+    <row r="739" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>38336</v>
       </c>
@@ -27001,7 +27047,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="740" spans="1:8" ht="34">
+    <row r="740" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>38325</v>
       </c>
@@ -27027,7 +27073,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="17">
+    <row r="741" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>38324</v>
       </c>
@@ -27053,7 +27099,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="742" spans="1:8" ht="34">
+    <row r="742" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>38308</v>
       </c>
@@ -27079,7 +27125,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="743" spans="1:8" ht="51">
+    <row r="743" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>38307</v>
       </c>
@@ -27105,7 +27151,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="744" spans="1:8" ht="34">
+    <row r="744" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>38307</v>
       </c>
@@ -27131,7 +27177,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="745" spans="1:8" ht="34">
+    <row r="745" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>38297</v>
       </c>
@@ -27157,7 +27203,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="34">
+    <row r="746" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>38288</v>
       </c>
@@ -27183,7 +27229,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="747" spans="1:8" ht="34">
+    <row r="747" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>38282</v>
       </c>
@@ -27209,7 +27255,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="748" spans="1:8" ht="51">
+    <row r="748" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>38279</v>
       </c>
@@ -27235,7 +27281,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="749" spans="1:8" ht="51">
+    <row r="749" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>38265</v>
       </c>
@@ -27261,7 +27307,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="750" spans="1:8" ht="51">
+    <row r="750" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>38250</v>
       </c>
@@ -27287,7 +27333,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="751" spans="1:8" ht="51">
+    <row r="751" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>38186</v>
       </c>
@@ -27313,7 +27359,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="752" spans="1:8" ht="34">
+    <row r="752" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>38167</v>
       </c>
@@ -27339,7 +27385,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="753" spans="1:8" ht="34">
+    <row r="753" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>38165</v>
       </c>
@@ -27365,7 +27411,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="754" spans="1:8" ht="51">
+    <row r="754" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>38165</v>
       </c>
@@ -27391,7 +27437,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="755" spans="1:8" ht="34">
+    <row r="755" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>38165</v>
       </c>
@@ -27417,7 +27463,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="756" spans="1:8" ht="51">
+    <row r="756" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>38144</v>
       </c>
@@ -27443,7 +27489,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="757" spans="1:8" ht="51">
+    <row r="757" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>38144</v>
       </c>
@@ -27469,7 +27515,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="758" spans="1:8" ht="51">
+    <row r="758" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>38144</v>
       </c>
@@ -27495,7 +27541,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="759" spans="1:8" ht="34">
+    <row r="759" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>38141</v>
       </c>
@@ -27521,7 +27567,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="760" spans="1:8" ht="34">
+    <row r="760" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>38140</v>
       </c>
@@ -27547,7 +27593,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="761" spans="1:8" ht="51">
+    <row r="761" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>38132</v>
       </c>
@@ -27573,7 +27619,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="762" spans="1:8" ht="34">
+    <row r="762" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>38113</v>
       </c>
@@ -27599,7 +27645,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="763" spans="1:8" ht="34">
+    <row r="763" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>38104</v>
       </c>
@@ -27625,7 +27671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="764" spans="1:8" ht="51">
+    <row r="764" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>38101</v>
       </c>
@@ -27651,7 +27697,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="765" spans="1:8" ht="51">
+    <row r="765" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>38097</v>
       </c>
@@ -27677,7 +27723,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="766" spans="1:8" ht="34">
+    <row r="766" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>38094</v>
       </c>
@@ -27703,7 +27749,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="767" spans="1:8" ht="51">
+    <row r="767" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>38088</v>
       </c>
@@ -27729,7 +27775,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="768" spans="1:8" ht="34">
+    <row r="768" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>38087</v>
       </c>
@@ -27755,7 +27801,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="769" spans="1:8" ht="51">
+    <row r="769" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>38080</v>
       </c>
@@ -27781,7 +27827,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="770" spans="1:8" ht="34">
+    <row r="770" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>38061</v>
       </c>
@@ -27807,7 +27853,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="771" spans="1:8" ht="51">
+    <row r="771" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>38048</v>
       </c>
@@ -27833,7 +27879,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="772" spans="1:8" ht="51">
+    <row r="772" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>38042</v>
       </c>
@@ -27859,7 +27905,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="773" spans="1:8" ht="34">
+    <row r="773" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>38032</v>
       </c>
@@ -27885,7 +27931,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="774" spans="1:8" ht="34">
+    <row r="774" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>38019</v>
       </c>
@@ -27911,7 +27957,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="775" spans="1:8" ht="34">
+    <row r="775" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>38000</v>
       </c>
@@ -27937,7 +27983,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="776" spans="1:8" ht="51">
+    <row r="776" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>37960</v>
       </c>
@@ -27963,7 +28009,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="777" spans="1:8" ht="51">
+    <row r="777" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>37957</v>
       </c>
@@ -27989,7 +28035,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="778" spans="1:8" ht="51">
+    <row r="778" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>37943</v>
       </c>
@@ -28015,7 +28061,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="779" spans="1:8" ht="51">
+    <row r="779" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>37942</v>
       </c>
@@ -28041,7 +28087,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="780" spans="1:8" ht="34">
+    <row r="780" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>37942</v>
       </c>
@@ -28067,7 +28113,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="781" spans="1:8" ht="51">
+    <row r="781" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>37921</v>
       </c>
@@ -28093,7 +28139,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="782" spans="1:8" ht="51">
+    <row r="782" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>37920</v>
       </c>
@@ -28119,7 +28165,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="783" spans="1:8" ht="34">
+    <row r="783" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>37915</v>
       </c>
@@ -28145,7 +28191,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="784" spans="1:8" ht="34">
+    <row r="784" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>37905</v>
       </c>
@@ -28171,7 +28217,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="785" spans="1:8" ht="34">
+    <row r="785" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>37901</v>
       </c>
@@ -28197,7 +28243,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="786" spans="1:8" ht="51">
+    <row r="786" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>37895</v>
       </c>
@@ -28223,7 +28269,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="787" spans="1:8" ht="51">
+    <row r="787" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>37884</v>
       </c>
@@ -28249,7 +28295,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="788" spans="1:8" ht="51">
+    <row r="788" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>37880</v>
       </c>
@@ -28275,7 +28321,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="789" spans="1:8" ht="34">
+    <row r="789" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>37878</v>
       </c>
@@ -28301,7 +28347,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="790" spans="1:8" ht="51">
+    <row r="790" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>37874</v>
       </c>
@@ -28327,7 +28373,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="791" spans="1:8" ht="68">
+    <row r="791" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>37854</v>
       </c>
@@ -28353,7 +28399,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="792" spans="1:8" ht="34">
+    <row r="792" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>37851</v>
       </c>
@@ -28379,7 +28425,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="793" spans="1:8" ht="51">
+    <row r="793" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>37827</v>
       </c>
@@ -28405,7 +28451,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="794" spans="1:8" ht="51">
+    <row r="794" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>37820</v>
       </c>
@@ -28431,7 +28477,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="795" spans="1:8" ht="34">
+    <row r="795" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>37820</v>
       </c>
@@ -28457,7 +28503,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="796" spans="1:8" ht="34">
+    <row r="796" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>37820</v>
       </c>
@@ -28483,7 +28529,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="797" spans="1:8" ht="34">
+    <row r="797" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>37817</v>
       </c>
@@ -28509,7 +28555,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="798" spans="1:8" ht="34">
+    <row r="798" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>37814</v>
       </c>
@@ -28535,7 +28581,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="799" spans="1:8" ht="34">
+    <row r="799" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>37806</v>
       </c>
@@ -28561,7 +28607,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="800" spans="1:8" ht="51">
+    <row r="800" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>37796</v>
       </c>
@@ -28587,7 +28633,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="801" spans="1:8" ht="51">
+    <row r="801" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>37772</v>
       </c>
@@ -28613,7 +28659,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="802" spans="1:8" ht="51">
+    <row r="802" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>37766</v>
       </c>
@@ -28639,7 +28685,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="803" spans="1:8" ht="34">
+    <row r="803" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>37763</v>
       </c>
@@ -28665,7 +28711,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="804" spans="1:8" ht="51">
+    <row r="804" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>37763</v>
       </c>
@@ -28691,7 +28737,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="805" spans="1:8" ht="34">
+    <row r="805" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>37763</v>
       </c>
@@ -28717,7 +28763,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="806" spans="1:8" ht="51">
+    <row r="806" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>37744</v>
       </c>
@@ -28743,7 +28789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="807" spans="1:8" ht="51">
+    <row r="807" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>37738</v>
       </c>
@@ -28769,7 +28815,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="808" spans="1:8" ht="34">
+    <row r="808" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>37737</v>
       </c>
@@ -28795,7 +28841,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="809" spans="1:8" ht="34">
+    <row r="809" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>37727</v>
       </c>
@@ -28821,7 +28867,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="810" spans="1:8" ht="51">
+    <row r="810" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>37714</v>
       </c>
@@ -28847,7 +28893,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="811" spans="1:8" ht="51">
+    <row r="811" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>37709</v>
       </c>
@@ -28873,7 +28919,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="812" spans="1:8" ht="34">
+    <row r="812" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>37695</v>
       </c>
@@ -28899,7 +28945,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="813" spans="1:8" ht="34">
+    <row r="813" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>37693</v>
       </c>
@@ -28925,7 +28971,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="814" spans="1:8" ht="51">
+    <row r="814" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>37666</v>
       </c>
@@ -28951,7 +28997,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="815" spans="1:8" ht="51">
+    <row r="815" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>37653</v>
       </c>
@@ -28977,7 +29023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="816" spans="1:8" ht="68">
+    <row r="816" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>37635</v>
       </c>
@@ -29003,7 +29049,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="817" spans="1:8" ht="51">
+    <row r="817" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>37625</v>
       </c>
@@ -29029,7 +29075,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="818" spans="1:8" ht="34">
+    <row r="818" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>37624</v>
       </c>
@@ -29055,7 +29101,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="819" spans="1:8" ht="34">
+    <row r="819" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>37618</v>
       </c>
@@ -29081,7 +29127,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="820" spans="1:8" ht="51">
+    <row r="820" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>37588</v>
       </c>
@@ -29107,7 +29153,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="821" spans="1:8" ht="51">
+    <row r="821" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>37582</v>
       </c>
@@ -29133,7 +29179,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="822" spans="1:8" ht="34">
+    <row r="822" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>37580</v>
       </c>
@@ -29159,7 +29205,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="823" spans="1:8" ht="51">
+    <row r="823" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>37578</v>
       </c>
@@ -29185,7 +29231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="824" spans="1:8" ht="51">
+    <row r="824" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>37555</v>
       </c>
@@ -29211,7 +29257,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="825" spans="1:8" ht="51">
+    <row r="825" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>37550</v>
       </c>
@@ -29237,7 +29283,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="826" spans="1:8" ht="51">
+    <row r="826" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>37547</v>
       </c>
@@ -29263,7 +29309,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="827" spans="1:8" ht="51">
+    <row r="827" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>37536</v>
       </c>
@@ -29289,7 +29335,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="828" spans="1:8" ht="34">
+    <row r="828" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>37531</v>
       </c>
@@ -29315,7 +29361,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="829" spans="1:8" ht="34">
+    <row r="829" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>37524</v>
       </c>
@@ -29341,7 +29387,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="830" spans="1:8" ht="68">
+    <row r="830" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>37523</v>
       </c>
@@ -29367,7 +29413,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="831" spans="1:8" ht="51">
+    <row r="831" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>37522</v>
       </c>
@@ -29393,7 +29439,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="832" spans="1:8" ht="34">
+    <row r="832" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>37499</v>
       </c>
@@ -29419,7 +29465,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="833" spans="1:8" ht="51">
+    <row r="833" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>37493</v>
       </c>
@@ -29445,7 +29491,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="834" spans="1:8" ht="34">
+    <row r="834" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>37462</v>
       </c>
@@ -29471,7 +29517,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="835" spans="1:8" ht="34">
+    <row r="835" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>37460</v>
       </c>
@@ -29497,7 +29543,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="836" spans="1:8" ht="51">
+    <row r="836" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>37455</v>
       </c>
@@ -29523,7 +29569,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="837" spans="1:8" ht="34">
+    <row r="837" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>37450</v>
       </c>
@@ -29549,7 +29595,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="838" spans="1:8" ht="51">
+    <row r="838" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>37449</v>
       </c>
@@ -29575,7 +29621,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="839" spans="1:8" ht="51">
+    <row r="839" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>37445</v>
       </c>
@@ -29601,7 +29647,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="840" spans="1:8" ht="34">
+    <row r="840" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>37443</v>
       </c>
@@ -29627,7 +29673,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="841" spans="1:8" ht="34">
+    <row r="841" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>37443</v>
       </c>
@@ -29653,7 +29699,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="842" spans="1:8" ht="34">
+    <row r="842" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>37439</v>
       </c>
@@ -29679,7 +29725,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="843" spans="1:8" ht="51">
+    <row r="843" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>37433</v>
       </c>
@@ -29705,7 +29751,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="844" spans="1:8" ht="17">
+    <row r="844" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>37430</v>
       </c>
@@ -29731,7 +29777,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="845" spans="1:8" ht="68">
+    <row r="845" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>37425</v>
       </c>
@@ -29757,7 +29803,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="846" spans="1:8" ht="51">
+    <row r="846" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>37420</v>
       </c>
@@ -29783,7 +29829,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="847" spans="1:8" ht="34">
+    <row r="847" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>37419</v>
       </c>
@@ -29809,7 +29855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="848" spans="1:8" ht="51">
+    <row r="848" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>37416</v>
       </c>
@@ -29835,7 +29881,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="849" spans="1:8" ht="51">
+    <row r="849" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>37400</v>
       </c>
@@ -29861,7 +29907,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="850" spans="1:8" ht="51">
+    <row r="850" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>37394</v>
       </c>
@@ -29887,7 +29933,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="851" spans="1:8" ht="34">
+    <row r="851" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>37387</v>
       </c>
@@ -29913,7 +29959,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="852" spans="1:8" ht="34">
+    <row r="852" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>37342</v>
       </c>
@@ -29939,7 +29985,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="853" spans="1:8" ht="68">
+    <row r="853" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>37328</v>
       </c>
@@ -29965,7 +30011,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="854" spans="1:8" ht="34">
+    <row r="854" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>37311</v>
       </c>
@@ -29991,7 +30037,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="855" spans="1:8" ht="51">
+    <row r="855" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>37308</v>
       </c>
@@ -30017,7 +30063,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="856" spans="1:8" ht="51">
+    <row r="856" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>37296</v>
       </c>
@@ -30043,7 +30089,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="857" spans="1:8" ht="51">
+    <row r="857" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>37295</v>
       </c>
@@ -30069,7 +30115,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="858" spans="1:8" ht="51">
+    <row r="858" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>37291</v>
       </c>
@@ -30095,7 +30141,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="859" spans="1:8" ht="34">
+    <row r="859" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>37288</v>
       </c>
@@ -30121,7 +30167,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="860" spans="1:8" ht="51">
+    <row r="860" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>37276</v>
       </c>
@@ -30147,7 +30193,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="861" spans="1:8" ht="51">
+    <row r="861" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>37275</v>
       </c>
@@ -30173,7 +30219,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="862" spans="1:8" ht="51">
+    <row r="862" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>37253</v>
       </c>
@@ -30199,7 +30245,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="863" spans="1:8" ht="51">
+    <row r="863" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>37252</v>
       </c>
@@ -30225,7 +30271,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="864" spans="1:8" ht="34">
+    <row r="864" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>37249</v>
       </c>
@@ -30251,7 +30297,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="865" spans="1:8" ht="34">
+    <row r="865" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>37243</v>
       </c>
@@ -30277,7 +30323,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="866" spans="1:8" ht="51">
+    <row r="866" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>37234</v>
       </c>
@@ -30303,7 +30349,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="867" spans="1:8" ht="51">
+    <row r="867" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>37232</v>
       </c>
@@ -30329,7 +30375,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="868" spans="1:8" ht="51">
+    <row r="868" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>37215</v>
       </c>
@@ -30355,7 +30401,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="869" spans="1:8" ht="51">
+    <row r="869" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>37215</v>
       </c>
@@ -30381,7 +30427,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="870" spans="1:8" ht="34">
+    <row r="870" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>37214</v>
       </c>
@@ -30407,7 +30453,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="871" spans="1:8" ht="51">
+    <row r="871" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>37214</v>
       </c>
@@ -30433,7 +30479,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="872" spans="1:8" ht="34">
+    <row r="872" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>37211</v>
       </c>
@@ -30459,7 +30505,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="873" spans="1:8" ht="51">
+    <row r="873" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>37206</v>
       </c>
@@ -30485,7 +30531,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="874" spans="1:8" ht="34">
+    <row r="874" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>37190</v>
       </c>
@@ -30511,7 +30557,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="875" spans="1:8" ht="34">
+    <row r="875" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>37189</v>
       </c>
@@ -30537,7 +30583,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="876" spans="1:8" ht="51">
+    <row r="876" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>37178</v>
       </c>
@@ -30563,7 +30609,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="877" spans="1:8" ht="34">
+    <row r="877" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>37148</v>
       </c>
@@ -30589,7 +30635,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="878" spans="1:8" ht="34">
+    <row r="878" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>37138</v>
       </c>
@@ -30615,7 +30661,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="879" spans="1:8" ht="51">
+    <row r="879" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>37136</v>
       </c>
@@ -30641,7 +30687,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="880" spans="1:8" ht="34">
+    <row r="880" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>37134</v>
       </c>
@@ -30667,7 +30713,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="881" spans="1:8" ht="34">
+    <row r="881" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>37129</v>
       </c>
@@ -30693,7 +30739,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="882" spans="1:8" ht="51">
+    <row r="882" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>37115</v>
       </c>
@@ -30719,7 +30765,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="883" spans="1:8" ht="34">
+    <row r="883" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>37093</v>
       </c>
@@ -30745,7 +30791,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="884" spans="1:8" ht="34">
+    <row r="884" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>37089</v>
       </c>
@@ -30771,7 +30817,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="885" spans="1:8" ht="34">
+    <row r="885" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>37086</v>
       </c>
@@ -30797,7 +30843,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="886" spans="1:8" ht="34">
+    <row r="886" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>37085</v>
       </c>
@@ -30823,7 +30869,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="887" spans="1:8" ht="51">
+    <row r="887" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>37077</v>
       </c>
@@ -30849,7 +30895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="888" spans="1:8" ht="34">
+    <row r="888" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>37076</v>
       </c>
@@ -30875,7 +30921,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="889" spans="1:8" ht="68">
+    <row r="889" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>37065</v>
       </c>
@@ -30901,7 +30947,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="890" spans="1:8" ht="34">
+    <row r="890" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>37058</v>
       </c>
@@ -30927,7 +30973,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="891" spans="1:8" ht="51">
+    <row r="891" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>37057</v>
       </c>
@@ -30953,7 +30999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="892" spans="1:8" ht="51">
+    <row r="892" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>37052</v>
       </c>
@@ -30979,7 +31025,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="893" spans="1:8" ht="68">
+    <row r="893" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>37034</v>
       </c>
@@ -31005,7 +31051,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="894" spans="1:8" ht="34">
+    <row r="894" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>37027</v>
       </c>
@@ -31031,7 +31077,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="895" spans="1:8" ht="68">
+    <row r="895" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>37025</v>
       </c>
@@ -31057,7 +31103,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="896" spans="1:8" ht="34">
+    <row r="896" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>37016</v>
       </c>
@@ -31083,7 +31129,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="897" spans="1:8" ht="34">
+    <row r="897" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>37015</v>
       </c>
@@ -31109,7 +31155,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="898" spans="1:8" ht="68">
+    <row r="898" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>37012</v>
       </c>
@@ -31135,7 +31181,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="899" spans="1:8" ht="34">
+    <row r="899" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>36985</v>
       </c>
@@ -31161,7 +31207,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="900" spans="1:8" ht="68">
+    <row r="900" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>36957</v>
       </c>
@@ -31187,7 +31233,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="901" spans="1:8" ht="51">
+    <row r="901" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>36953</v>
       </c>
@@ -31213,7 +31259,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="902" spans="1:8" ht="34">
+    <row r="902" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>36952</v>
       </c>
@@ -31239,7 +31285,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="903" spans="1:8" ht="34">
+    <row r="903" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>36936</v>
       </c>
@@ -31265,7 +31311,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="904" spans="1:8" ht="34">
+    <row r="904" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>36930</v>
       </c>
@@ -31291,7 +31337,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="905" spans="1:8" ht="68">
+    <row r="905" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>36900</v>
       </c>
@@ -31317,7 +31363,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="906" spans="1:8" ht="51">
+    <row r="906" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>36850</v>
       </c>
@@ -31343,7 +31389,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="907" spans="1:8" ht="34">
+    <row r="907" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>36842</v>
       </c>
@@ -31369,7 +31415,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="908" spans="1:8" ht="34">
+    <row r="908" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>36827</v>
       </c>
@@ -31395,7 +31441,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="909" spans="1:8" ht="34">
+    <row r="909" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>36790</v>
       </c>
@@ -31421,7 +31467,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="910" spans="1:8" ht="51">
+    <row r="910" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>36789</v>
       </c>
@@ -31447,7 +31493,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="911" spans="1:8" ht="51">
+    <row r="911" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>36781</v>
       </c>
@@ -31473,7 +31519,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="912" spans="1:8" ht="51">
+    <row r="912" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>36776</v>
       </c>
@@ -31499,7 +31545,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="913" spans="1:8" ht="34">
+    <row r="913" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>36764</v>
       </c>
@@ -31525,7 +31571,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="914" spans="1:8" ht="34">
+    <row r="914" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>36762</v>
       </c>
@@ -31551,7 +31597,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="915" spans="1:8" ht="51">
+    <row r="915" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>36751</v>
       </c>
@@ -31577,7 +31623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="916" spans="1:8" ht="34">
+    <row r="916" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>36747</v>
       </c>
@@ -31603,7 +31649,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="917" spans="1:8" ht="51">
+    <row r="917" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>36745</v>
       </c>
@@ -31629,7 +31675,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="918" spans="1:8" ht="51">
+    <row r="918" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>36735</v>
       </c>
@@ -31655,7 +31701,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="919" spans="1:8" ht="34">
+    <row r="919" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>36727</v>
       </c>
@@ -31681,7 +31727,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="920" spans="1:8" ht="34">
+    <row r="920" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>36725</v>
       </c>
@@ -31707,7 +31753,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="921" spans="1:8" ht="34">
+    <row r="921" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>36714</v>
       </c>
@@ -31733,7 +31779,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="922" spans="1:8" ht="51">
+    <row r="922" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>36698</v>
       </c>
@@ -31759,7 +31805,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="923" spans="1:8" ht="34">
+    <row r="923" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>36688</v>
       </c>
@@ -31785,7 +31831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="924" spans="1:8" ht="51">
+    <row r="924" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>36670</v>
       </c>
@@ -31811,7 +31857,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="925" spans="1:8" ht="51">
+    <row r="925" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>36666</v>
       </c>
@@ -31837,7 +31883,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="926" spans="1:8" ht="51">
+    <row r="926" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>36665</v>
       </c>
@@ -31863,7 +31909,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="927" spans="1:8" ht="34">
+    <row r="927" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>36659</v>
       </c>
@@ -31889,7 +31935,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="928" spans="1:8" ht="51">
+    <row r="928" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>36633</v>
       </c>
@@ -31915,7 +31961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="929" spans="1:8" ht="51">
+    <row r="929" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>36626</v>
       </c>
@@ -31941,7 +31987,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="930" spans="1:8" ht="68">
+    <row r="930" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>36622</v>
       </c>
@@ -31967,7 +32013,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="931" spans="1:8" ht="51">
+    <row r="931" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>36617</v>
       </c>
@@ -31993,7 +32039,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="932" spans="1:8" ht="51">
+    <row r="932" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>36616</v>
       </c>
@@ -32019,7 +32065,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="933" spans="1:8" ht="51">
+    <row r="933" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>36608</v>
       </c>
@@ -32045,7 +32091,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="934" spans="1:8" ht="34">
+    <row r="934" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>36599</v>
       </c>
@@ -32071,7 +32117,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="935" spans="1:8" ht="51">
+    <row r="935" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>36578</v>
       </c>
@@ -32097,7 +32143,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="936" spans="1:8" ht="51">
+    <row r="936" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>36577</v>
       </c>
@@ -32123,7 +32169,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="937" spans="1:8" ht="51">
+    <row r="937" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>36575</v>
       </c>
@@ -32149,7 +32195,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="938" spans="1:8" ht="34">
+    <row r="938" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>36572</v>
       </c>
@@ -32175,7 +32221,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="939" spans="1:8" ht="34">
+    <row r="939" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>36562</v>
       </c>
@@ -32201,7 +32247,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="940" spans="1:8" ht="51">
+    <row r="940" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>36562</v>
       </c>
@@ -32227,7 +32273,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="941" spans="1:8" ht="34">
+    <row r="941" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>36561</v>
       </c>
@@ -32253,7 +32299,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="942" spans="1:8" ht="68">
+    <row r="942" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>36559</v>
       </c>
@@ -32279,7 +32325,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="943" spans="1:8" ht="51">
+    <row r="943" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>36556</v>
       </c>
@@ -32305,7 +32351,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="944" spans="1:8" ht="34">
+    <row r="944" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>36549</v>
       </c>
@@ -32344,32 +32390,32 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="186.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2454</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2455</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2456</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2457</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="68">
+    <row r="6" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2458</v>
       </c>
@@ -32389,7 +32435,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -32407,7 +32453,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -32425,7 +32471,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -32443,7 +32489,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -32467,4 +32513,125 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2283F45-9553-0E4C-A81B-BAAF27B6B761}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2462</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/assets/data/xlexamples/nfl-arrest-usatoday.xlsx
+++ b/docs/assets/data/xlexamples/nfl-arrest-usatoday.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shcohen1/Documents/GitHub/cronkite-docs/docs/assets/data/xlexamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE32188E-70AB-224E-9C21-FA6EA84BC23B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EC5306-0E09-7C40-9FC4-23A7978D3298}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="3080" windowWidth="27640" windowHeight="16940" xr2:uid="{1AFB17AE-B308-7F41-AB3C-6B0C5EEA4A16}"/>
+    <workbookView xWindow="4920" yWindow="2940" windowWidth="27640" windowHeight="16940" xr2:uid="{1AFB17AE-B308-7F41-AB3C-6B0C5EEA4A16}"/>
   </bookViews>
   <sheets>
     <sheet name="arrests" sheetId="1" r:id="rId1"/>
@@ -7819,7 +7819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCA1043-825D-B64C-8F56-71CE8EBE9572}">
   <dimension ref="A1:H944"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32387,7 +32389,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
